--- a/Datos/Database by set/Set with text box/Xlsx sets/From the Vault Annihilation (V14).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/From the Vault Annihilation (V14).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A67"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,462 +444,105 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Armageddon</t>
+          <t>('Armageddon', ['{3}{W}', 'Sorcery', 'Destroy all lands.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{3}{W}</t>
+          <t>('Burning of Xinye', ['{4}{R}{R}', 'Sorcery', 'You destroy four lands you control, then target opponent destroys four lands they control. Then Burning of Xinye deals 4 damage to each creature.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sorcery</t>
+          <t>('Cataclysm', ['{2}{W}{W}', 'Sorcery', 'Each player chooses from among the permanents they control an artifact, a creature, an enchantment, and a land, then sacrifices the rest.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Destroy all lands.</t>
+          <t>('Child of Alara', ['{W}{U}{B}{R}{G}', 'Legendary Creature — Avatar', 'Trample', 'When Child of Alara dies, destroy all nonland permanents. They can’t be regenerated.', '6/6'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Burning of Xinye</t>
+          <t>('Decree of Annihilation', ['{8}{R}{R}', 'Sorcery', 'Exile all artifacts, creatures, and lands from the battlefield, all cards from all graveyards, and all cards from all hands.', 'Cycling {5}{R}{R} ({5}{R}{R}, Discard this card: Draw a card.)', 'When you cycle Decree of Annihilation, destroy all lands.'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>{4}{R}{R}</t>
+          <t>('Firespout', ['{2}{R/G}', 'Sorcery', 'Firespout deals 3 damage to each creature without flying if {R} was spent to cast this spell and 3 damage to each creature with flying if {G} was spent to cast this spell. (Do both if {R}{G} was spent.)'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sorcery</t>
+          <t>('Fracturing Gust', ['{2}{G/W}{G/W}{G/W}', 'Instant', 'Destroy all artifacts and enchantments. You gain 2 life for each permanent destroyed this way.'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>You destroy four lands you control, then target opponent destroys four lands they control. Then Burning of Xinye deals 4 damage to each creature.</t>
+          <t>('Living Death', ['{3}{B}{B}', 'Sorcery', 'Each player exiles all creature cards from their graveyard, then sacrifices all creatures they control, then puts all cards they exiled this way onto the battlefield.'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cataclysm</t>
+          <t>('Martial Coup', ['{X}{W}{W}', 'Sorcery', 'Create X 1/1 white Soldier creature tokens. If X is 5 or more, destroy all other creatures.'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>{2}{W}{W}</t>
+          <t>('Rolling Earthquake', ['{X}{R}', 'Sorcery', 'Rolling Earthquake deals X damage to each creature without horsemanship and each player.'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sorcery</t>
+          <t>('Smokestack', ['{4}', 'Artifact', 'At the beginning of your upkeep, you may put a soot counter on Smokestack.', 'At the beginning of each player’s upkeep, that player sacrifices a permanent for each soot counter on Smokestack.'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Each player chooses from among the permanents they control an artifact, a creature, an enchantment, and a land, then sacrifices the rest.</t>
+          <t>('Terminus', ['{4}{W}{W}', 'Sorcery', 'Put all creatures on the bottom of their owners’ libraries.', 'Miracle {W} (You may cast this card for its miracle cost when you draw it if it’s the first card you drew this turn.)'])</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Child of Alara</t>
+          <t>('Upheaval', ['{4}{U}{U}', 'Sorcery', 'Return all permanents to their owners’ hands.'])</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>{W}{U}{B}{R}{G}</t>
+          <t>("Virtue's Ruin", ['{2}{B}', 'Sorcery', 'Destroy all white creatures.'])</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Legendary Creature — Avatar</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Trample</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>When Child of Alara dies, destroy all nonland permanents. They can’t be regenerated.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>6/6</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Decree of Annihilation</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>{8}{R}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Exile all artifacts, creatures, and lands from the battlefield, all cards from all graveyards, and all cards from all hands.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Cycling {5}{R}{R} ({5}{R}{R}, Discard this card: Draw a card.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>When you cycle Decree of Annihilation, destroy all lands.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Firespout</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>{2}{R/G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Firespout deals 3 damage to each creature without flying if {R} was spent to cast this spell and 3 damage to each creature with flying if {G} was spent to cast this spell. (Do both if {R}{G} was spent.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Fracturing Gust</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>{2}{G/W}{G/W}{G/W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Destroy all artifacts and enchantments. You gain 2 life for each permanent destroyed this way.</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Living Death</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>{3}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Each player exiles all creature cards from their graveyard, then sacrifices all creatures they control, then puts all cards they exiled this way onto the battlefield.</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Martial Coup</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>{X}{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Create X 1/1 white Soldier creature tokens. If X is 5 or more, destroy all other creatures.</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Rolling Earthquake</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>{X}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Rolling Earthquake deals X damage to each creature without horsemanship and each player.</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Smokestack</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>{4}</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Artifact</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>At the beginning of your upkeep, you may put a soot counter on Smokestack.</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>At the beginning of each player’s upkeep, that player sacrifices a permanent for each soot counter on Smokestack.</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Terminus</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>{4}{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Put all creatures on the bottom of their owners’ libraries.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Miracle {W} (You may cast this card for its miracle cost when you draw it if it’s the first card you drew this turn.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Upheaval</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>{4}{U}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Return all permanents to their owners’ hands.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Virtue's Ruin</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>{2}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Destroy all white creatures.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Wrath of God</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>{2}{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Destroy all creatures. They can’t be regenerated.</t>
+          <t>('Wrath of God', ['{2}{W}{W}', 'Sorcery', 'Destroy all creatures. They can’t be regenerated.'])</t>
         </is>
       </c>
     </row>
